--- a/Liste der APIs.xlsx
+++ b/Liste der APIs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BlizzAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF023D-F9CB-4188-9CE1-F683CAAAB75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DF6C57-1E56-4397-A9BB-5997865D5DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>Achievement Categories Index</t>
   </si>
@@ -728,13 +728,22 @@
   </si>
   <si>
     <t>Guild API</t>
+  </si>
+  <si>
+    <t>fertig</t>
+  </si>
+  <si>
+    <t>unnötig</t>
+  </si>
+  <si>
+    <t>nicht umsetzbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,8 +778,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +822,21 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -802,13 +847,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,14 +879,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
     <cellStyle name="Akzent2" xfId="2" builtinId="33"/>
     <cellStyle name="Akzent6" xfId="3" builtinId="49"/>
+    <cellStyle name="Gut" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="5" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -906,133 +969,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1349,7 +1285,7 @@
   <dimension ref="A1:I961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4665,10 +4601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF5CD30-F5AE-4240-A3D1-394B1D8EAD48}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,68 +4619,68 @@
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4895,50 +4831,55 @@
         <v>214</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:H1">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="API">
-      <formula>NOT(ISERROR(SEARCH("API",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="API">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="API">
       <formula>NOT(ISERROR(SEARCH("API",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="API">
+      <formula>NOT(ISERROR(SEARCH("API",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C13">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="API">
+      <formula>NOT(ISERROR(SEARCH("API",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="API">
+      <formula>NOT(ISERROR(SEARCH("API",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:E19">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="API">
+      <formula>NOT(ISERROR(SEARCH("API",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B4:F4">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="API">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="API">
       <formula>NOT(ISERROR(SEARCH("API",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D5">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="API">
-      <formula>NOT(ISERROR(SEARCH("API",B5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="API">
-      <formula>NOT(ISERROR(SEARCH("API",B9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="API">
-      <formula>NOT(ISERROR(SEARCH("API",B11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="API">
-      <formula>NOT(ISERROR(SEARCH("API",B12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="API">
-      <formula>NOT(ISERROR(SEARCH("API",B13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:E19">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="API">
-      <formula>NOT(ISERROR(SEARCH("API",B19)))</formula>
+  <conditionalFormatting sqref="B1:H1">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="API">
+      <formula>NOT(ISERROR(SEARCH("API",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Liste der APIs.xlsx
+++ b/Liste der APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BlizzAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DF6C57-1E56-4397-A9BB-5997865D5DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB5143-5566-46B0-9DC7-97D498FFD880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
+    <workbookView xWindow="-28920" yWindow="120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data APIs" sheetId="2" r:id="rId1"/>
@@ -856,7 +856,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -883,9 +883,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
@@ -4604,7 +4601,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,41 +4665,41 @@
       <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4832,17 +4829,17 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4883,5 +4880,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Liste der APIs.xlsx
+++ b/Liste der APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BlizzAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB5143-5566-46B0-9DC7-97D498FFD880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A2201-CA35-4941-8379-7DB8027E829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Achievement Categories Index</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>nicht umsetzbar</t>
+  </si>
+  <si>
+    <t>geht besser mit anderen Befehlen in Kombination</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -888,6 +891,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -4598,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF5CD30-F5AE-4240-A3D1-394B1D8EAD48}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4703,128 +4707,128 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4841,6 +4845,11 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Liste der APIs.xlsx
+++ b/Liste der APIs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BlizzAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A2201-CA35-4941-8379-7DB8027E829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41BFE76-ACF0-4E28-87E7-70488F164119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
+    <workbookView xWindow="-28920" yWindow="120" windowWidth="29040" windowHeight="15840" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data APIs" sheetId="2" r:id="rId1"/>
@@ -746,7 +746,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +798,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -859,7 +873,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -892,6 +906,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -1285,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FB894B-C5F2-4F1D-A33C-BFF7078F46A6}">
   <dimension ref="A1:I961"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,16 +1327,16 @@
       <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -4604,8 +4624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF5CD30-F5AE-4240-A3D1-394B1D8EAD48}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Liste der APIs.xlsx
+++ b/Liste der APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BlizzAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41BFE76-ACF0-4E28-87E7-70488F164119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37847436-3B7A-4A17-A926-32E78EF3F7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="120" windowWidth="29040" windowHeight="15840" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
+    <workbookView xWindow="38280" yWindow="285" windowWidth="29040" windowHeight="15840" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data APIs" sheetId="2" r:id="rId1"/>
@@ -746,7 +746,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,13 +757,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -802,22 +795,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,16 +806,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
@@ -864,65 +833,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="5">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Akzent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Akzent6" xfId="3" builtinId="49"/>
-    <cellStyle name="Gut" xfId="4" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="5" builtinId="27"/>
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1305,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FB894B-C5F2-4F1D-A33C-BFF7078F46A6}">
   <dimension ref="A1:I961"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,120 +1283,120 @@
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1444,82 +1404,82 @@
       <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1527,386 +1487,386 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1914,10 +1874,10 @@
       <c r="A35" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2345,2277 +2305,2282 @@
       <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
+      <c r="A206" s="2"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
+      <c r="A207" s="3"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
+      <c r="A208" s="3"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
+      <c r="A209" s="3"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
+      <c r="A210" s="3"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
+      <c r="A211" s="3"/>
     </row>
     <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
+      <c r="A212" s="2"/>
     </row>
     <row r="213" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
+      <c r="A213" s="2"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
+      <c r="A214" s="3"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
+      <c r="A215" s="3"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
+      <c r="A216" s="3"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
+      <c r="A217" s="3"/>
     </row>
     <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
+      <c r="A218" s="2"/>
     </row>
     <row r="219" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
+      <c r="A219" s="2"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
+      <c r="A220" s="3"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
+      <c r="A221" s="3"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
+      <c r="A222" s="3"/>
     </row>
     <row r="223" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
+      <c r="A223" s="2"/>
     </row>
     <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
+      <c r="A224" s="2"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
+      <c r="A225" s="3"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
+      <c r="A226" s="3"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
+      <c r="A227" s="3"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
+      <c r="A228" s="3"/>
     </row>
     <row r="229" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
+      <c r="A229" s="2"/>
     </row>
     <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
+      <c r="A230" s="2"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
+      <c r="A231" s="3"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
+      <c r="A232" s="3"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
+      <c r="A233" s="3"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
+      <c r="A234" s="3"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
+      <c r="A235" s="3"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
+      <c r="A236" s="3"/>
     </row>
     <row r="237" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
+      <c r="A237" s="2"/>
     </row>
     <row r="238" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
+      <c r="A238" s="2"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
+      <c r="A239" s="3"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
+      <c r="A240" s="3"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
+      <c r="A241" s="3"/>
     </row>
     <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
+      <c r="A242" s="2"/>
     </row>
     <row r="243" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
+      <c r="A243" s="2"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
+      <c r="A244" s="3"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
+      <c r="A245" s="3"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
+      <c r="A246" s="3"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
+      <c r="A247" s="3"/>
     </row>
     <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
+      <c r="A248" s="2"/>
     </row>
     <row r="249" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
+      <c r="A249" s="2"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
+      <c r="A250" s="3"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
+      <c r="A251" s="3"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
+      <c r="A252" s="3"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
+      <c r="A253" s="3"/>
     </row>
     <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
+      <c r="A254" s="2"/>
     </row>
     <row r="255" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
+      <c r="A255" s="2"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
+      <c r="A256" s="3"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
+      <c r="A257" s="3"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
+      <c r="A258" s="3"/>
     </row>
     <row r="259" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
+      <c r="A259" s="2"/>
     </row>
     <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
+      <c r="A260" s="2"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
+      <c r="A261" s="3"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
+      <c r="A262" s="3"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
+      <c r="A263" s="3"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
+      <c r="A264" s="3"/>
     </row>
     <row r="265" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
+      <c r="A265" s="2"/>
     </row>
     <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
+      <c r="A266" s="2"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
+      <c r="A267" s="3"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
+      <c r="A268" s="3"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
+      <c r="A269" s="3"/>
     </row>
     <row r="270" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
+      <c r="A270" s="2"/>
     </row>
     <row r="271" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
+      <c r="A271" s="2"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
+      <c r="A272" s="3"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
+      <c r="A273" s="3"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
+      <c r="A274" s="3"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
+      <c r="A275" s="3"/>
     </row>
     <row r="276" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
+      <c r="A276" s="2"/>
     </row>
     <row r="277" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
+      <c r="A277" s="2"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
+      <c r="A278" s="3"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
+      <c r="A279" s="3"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
+      <c r="A280" s="3"/>
     </row>
     <row r="281" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="3"/>
+      <c r="A281" s="2"/>
     </row>
     <row r="282" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="3"/>
+      <c r="A282" s="2"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
+      <c r="A283" s="3"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
+      <c r="A284" s="3"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
+      <c r="A285" s="3"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
+      <c r="A286" s="3"/>
     </row>
     <row r="287" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
+      <c r="A287" s="2"/>
     </row>
     <row r="288" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
+      <c r="A288" s="2"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
+      <c r="A289" s="3"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
+      <c r="A290" s="3"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
+      <c r="A291" s="3"/>
     </row>
     <row r="292" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="3"/>
+      <c r="A292" s="2"/>
     </row>
     <row r="293" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="3"/>
+      <c r="A293" s="2"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
+      <c r="A294" s="3"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
+      <c r="A295" s="3"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
+      <c r="A296" s="3"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
+      <c r="A297" s="3"/>
     </row>
     <row r="298" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="3"/>
+      <c r="A298" s="2"/>
     </row>
     <row r="299" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
+      <c r="A299" s="2"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
+      <c r="A300" s="3"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
+      <c r="A301" s="3"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="4"/>
+      <c r="A302" s="3"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="4"/>
+      <c r="A303" s="3"/>
     </row>
     <row r="304" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A304" s="3"/>
+      <c r="A304" s="2"/>
     </row>
     <row r="305" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="3"/>
+      <c r="A305" s="2"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
+      <c r="A306" s="3"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
+      <c r="A307" s="3"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="4"/>
+      <c r="A308" s="3"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="4"/>
+      <c r="A309" s="3"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
+      <c r="A310" s="3"/>
     </row>
     <row r="311" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
+      <c r="A311" s="2"/>
     </row>
     <row r="312" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A312" s="3"/>
+      <c r="A312" s="2"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
+      <c r="A313" s="3"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="4"/>
+      <c r="A314" s="3"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="4"/>
+      <c r="A315" s="3"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
+      <c r="A316" s="3"/>
     </row>
     <row r="317" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A317" s="3"/>
+      <c r="A317" s="2"/>
     </row>
     <row r="318" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A318" s="3"/>
+      <c r="A318" s="2"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
+      <c r="A319" s="3"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
+      <c r="A320" s="3"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="4"/>
+      <c r="A321" s="3"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
+      <c r="A322" s="3"/>
     </row>
     <row r="323" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="3"/>
+      <c r="A323" s="2"/>
     </row>
     <row r="324" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A324" s="3"/>
+      <c r="A324" s="2"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="4"/>
+      <c r="A325" s="3"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="4"/>
+      <c r="A326" s="3"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="4"/>
+      <c r="A327" s="3"/>
     </row>
     <row r="328" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A328" s="3"/>
+      <c r="A328" s="2"/>
     </row>
     <row r="329" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
+      <c r="A329" s="2"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
+      <c r="A330" s="3"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="4"/>
+      <c r="A331" s="3"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="4"/>
+      <c r="A332" s="3"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="4"/>
+      <c r="A333" s="3"/>
     </row>
     <row r="334" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="3"/>
+      <c r="A334" s="2"/>
     </row>
     <row r="335" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="3"/>
+      <c r="A335" s="2"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="4"/>
+      <c r="A336" s="3"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="4"/>
+      <c r="A337" s="3"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="4"/>
+      <c r="A338" s="3"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="4"/>
+      <c r="A339" s="3"/>
     </row>
     <row r="340" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="3"/>
+      <c r="A340" s="2"/>
     </row>
     <row r="341" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A341" s="3"/>
+      <c r="A341" s="2"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="4"/>
+      <c r="A342" s="3"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
+      <c r="A343" s="3"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="4"/>
+      <c r="A344" s="3"/>
     </row>
     <row r="345" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
+      <c r="A345" s="2"/>
     </row>
     <row r="346" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A346" s="3"/>
+      <c r="A346" s="2"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="4"/>
+      <c r="A347" s="3"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="4"/>
+      <c r="A348" s="3"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="4"/>
+      <c r="A349" s="3"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="4"/>
+      <c r="A350" s="3"/>
     </row>
     <row r="351" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A351" s="3"/>
+      <c r="A351" s="2"/>
     </row>
     <row r="352" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A352" s="3"/>
+      <c r="A352" s="2"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="4"/>
+      <c r="A353" s="3"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="4"/>
+      <c r="A354" s="3"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="4"/>
+      <c r="A355" s="3"/>
     </row>
     <row r="356" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="3"/>
+      <c r="A356" s="2"/>
     </row>
     <row r="357" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="3"/>
+      <c r="A357" s="2"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
+      <c r="A358" s="3"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
+      <c r="A359" s="3"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="4"/>
+      <c r="A360" s="3"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="4"/>
+      <c r="A361" s="3"/>
     </row>
     <row r="362" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="3"/>
+      <c r="A362" s="2"/>
     </row>
     <row r="363" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A363" s="3"/>
+      <c r="A363" s="2"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="4"/>
+      <c r="A364" s="3"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="4"/>
+      <c r="A365" s="3"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="4"/>
+      <c r="A366" s="3"/>
     </row>
     <row r="367" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A367" s="3"/>
+      <c r="A367" s="2"/>
     </row>
     <row r="368" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="3"/>
+      <c r="A368" s="2"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="4"/>
+      <c r="A369" s="3"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="4"/>
+      <c r="A370" s="3"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="4"/>
+      <c r="A371" s="3"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="4"/>
+      <c r="A372" s="3"/>
     </row>
     <row r="373" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="3"/>
+      <c r="A373" s="2"/>
     </row>
     <row r="374" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="3"/>
+      <c r="A374" s="2"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
+      <c r="A375" s="3"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
+      <c r="A376" s="3"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="4"/>
+      <c r="A377" s="3"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="4"/>
+      <c r="A378" s="3"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="4"/>
+      <c r="A379" s="3"/>
     </row>
     <row r="380" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A380" s="3"/>
+      <c r="A380" s="2"/>
     </row>
     <row r="381" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A381" s="3"/>
+      <c r="A381" s="2"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="4"/>
+      <c r="A382" s="3"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="4"/>
+      <c r="A383" s="3"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="4"/>
+      <c r="A384" s="3"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="4"/>
+      <c r="A385" s="3"/>
     </row>
     <row r="386" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="3"/>
+      <c r="A386" s="2"/>
     </row>
     <row r="387" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A387" s="3"/>
+      <c r="A387" s="2"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="4"/>
+      <c r="A388" s="3"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="4"/>
+      <c r="A389" s="3"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="4"/>
+      <c r="A390" s="3"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="4"/>
+      <c r="A391" s="3"/>
     </row>
     <row r="392" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="3"/>
+      <c r="A392" s="2"/>
     </row>
     <row r="393" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A393" s="3"/>
+      <c r="A393" s="2"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="4"/>
+      <c r="A394" s="3"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="4"/>
+      <c r="A395" s="3"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="4"/>
+      <c r="A396" s="3"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="4"/>
+      <c r="A397" s="3"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="4"/>
+      <c r="A398" s="3"/>
     </row>
     <row r="399" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="3"/>
+      <c r="A399" s="2"/>
     </row>
     <row r="400" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A400" s="3"/>
+      <c r="A400" s="2"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="4"/>
+      <c r="A401" s="3"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="4"/>
+      <c r="A402" s="3"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="4"/>
+      <c r="A403" s="3"/>
     </row>
     <row r="404" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="3"/>
+      <c r="A404" s="2"/>
     </row>
     <row r="405" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="3"/>
+      <c r="A405" s="2"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="4"/>
+      <c r="A406" s="3"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="4"/>
+      <c r="A407" s="3"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="4"/>
+      <c r="A408" s="3"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="4"/>
+      <c r="A409" s="3"/>
     </row>
     <row r="410" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="3"/>
+      <c r="A410" s="2"/>
     </row>
     <row r="411" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="3"/>
+      <c r="A411" s="2"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="4"/>
+      <c r="A412" s="3"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="4"/>
+      <c r="A413" s="3"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="4"/>
+      <c r="A414" s="3"/>
     </row>
     <row r="415" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A415" s="3"/>
+      <c r="A415" s="2"/>
     </row>
     <row r="416" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="3"/>
+      <c r="A416" s="2"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="4"/>
+      <c r="A417" s="3"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="4"/>
+      <c r="A418" s="3"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="4"/>
+      <c r="A419" s="3"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="4"/>
+      <c r="A420" s="3"/>
     </row>
     <row r="421" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A421" s="3"/>
+      <c r="A421" s="2"/>
     </row>
     <row r="422" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="3"/>
+      <c r="A422" s="2"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="4"/>
+      <c r="A423" s="3"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="4"/>
+      <c r="A424" s="3"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="4"/>
+      <c r="A425" s="3"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="4"/>
+      <c r="A426" s="3"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="4"/>
+      <c r="A427" s="3"/>
     </row>
     <row r="428" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="3"/>
+      <c r="A428" s="2"/>
     </row>
     <row r="429" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="3"/>
+      <c r="A429" s="2"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="4"/>
+      <c r="A430" s="3"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="4"/>
+      <c r="A431" s="3"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="4"/>
+      <c r="A432" s="3"/>
     </row>
     <row r="433" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="3"/>
+      <c r="A433" s="2"/>
     </row>
     <row r="434" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="3"/>
+      <c r="A434" s="2"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="4"/>
+      <c r="A435" s="3"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="4"/>
+      <c r="A436" s="3"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="4"/>
+      <c r="A437" s="3"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="4"/>
+      <c r="A438" s="3"/>
     </row>
     <row r="439" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A439" s="3"/>
+      <c r="A439" s="2"/>
     </row>
     <row r="440" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="3"/>
+      <c r="A440" s="2"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="4"/>
+      <c r="A441" s="3"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="4"/>
+      <c r="A442" s="3"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="4"/>
+      <c r="A443" s="3"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="4"/>
+      <c r="A444" s="3"/>
     </row>
     <row r="445" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="3"/>
+      <c r="A445" s="2"/>
     </row>
     <row r="446" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="3"/>
+      <c r="A446" s="2"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="4"/>
+      <c r="A447" s="3"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="4"/>
+      <c r="A448" s="3"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="4"/>
+      <c r="A449" s="3"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="4"/>
+      <c r="A450" s="3"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="4"/>
+      <c r="A451" s="3"/>
     </row>
     <row r="452" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A452" s="3"/>
+      <c r="A452" s="2"/>
     </row>
     <row r="453" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A453" s="3"/>
+      <c r="A453" s="2"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="4"/>
+      <c r="A454" s="3"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="4"/>
+      <c r="A455" s="3"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="4"/>
+      <c r="A456" s="3"/>
     </row>
     <row r="457" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A457" s="3"/>
+      <c r="A457" s="2"/>
     </row>
     <row r="458" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="3"/>
+      <c r="A458" s="2"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="4"/>
+      <c r="A459" s="3"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="4"/>
+      <c r="A460" s="3"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="4"/>
+      <c r="A461" s="3"/>
     </row>
     <row r="462" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A462" s="3"/>
+      <c r="A462" s="2"/>
     </row>
     <row r="463" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A463" s="3"/>
+      <c r="A463" s="2"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="4"/>
+      <c r="A464" s="3"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="4"/>
+      <c r="A465" s="3"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="4"/>
+      <c r="A466" s="3"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="4"/>
+      <c r="A467" s="3"/>
     </row>
     <row r="468" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A468" s="3"/>
+      <c r="A468" s="2"/>
     </row>
     <row r="469" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A469" s="3"/>
+      <c r="A469" s="2"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="4"/>
+      <c r="A470" s="3"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="4"/>
+      <c r="A471" s="3"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="4"/>
+      <c r="A472" s="3"/>
     </row>
     <row r="473" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A473" s="3"/>
+      <c r="A473" s="2"/>
     </row>
     <row r="474" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A474" s="3"/>
+      <c r="A474" s="2"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="4"/>
+      <c r="A475" s="3"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="4"/>
+      <c r="A476" s="3"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="4"/>
+      <c r="A477" s="3"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="4"/>
+      <c r="A478" s="3"/>
     </row>
     <row r="479" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A479" s="3"/>
+      <c r="A479" s="2"/>
     </row>
     <row r="480" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A480" s="3"/>
+      <c r="A480" s="2"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="4"/>
+      <c r="A481" s="3"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="4"/>
+      <c r="A482" s="3"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="4"/>
+      <c r="A483" s="3"/>
     </row>
     <row r="484" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A484" s="3"/>
+      <c r="A484" s="2"/>
     </row>
     <row r="485" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A485" s="3"/>
+      <c r="A485" s="2"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="4"/>
+      <c r="A486" s="3"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="4"/>
+      <c r="A487" s="3"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="4"/>
+      <c r="A488" s="3"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="4"/>
+      <c r="A489" s="3"/>
     </row>
     <row r="490" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A490" s="3"/>
+      <c r="A490" s="2"/>
     </row>
     <row r="491" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A491" s="3"/>
+      <c r="A491" s="2"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="4"/>
+      <c r="A492" s="3"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="4"/>
+      <c r="A493" s="3"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="4"/>
+      <c r="A494" s="3"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="4"/>
+      <c r="A495" s="3"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="4"/>
+      <c r="A496" s="3"/>
     </row>
     <row r="497" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A497" s="3"/>
+      <c r="A497" s="2"/>
     </row>
     <row r="498" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A498" s="3"/>
+      <c r="A498" s="2"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="4"/>
+      <c r="A499" s="3"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="4"/>
+      <c r="A500" s="3"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="4"/>
+      <c r="A501" s="3"/>
     </row>
     <row r="502" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A502" s="3"/>
+      <c r="A502" s="2"/>
     </row>
     <row r="503" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A503" s="3"/>
+      <c r="A503" s="2"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="4"/>
+      <c r="A504" s="3"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="4"/>
+      <c r="A505" s="3"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="4"/>
+      <c r="A506" s="3"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="4"/>
+      <c r="A507" s="3"/>
     </row>
     <row r="508" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A508" s="3"/>
+      <c r="A508" s="2"/>
     </row>
     <row r="509" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A509" s="3"/>
+      <c r="A509" s="2"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="4"/>
+      <c r="A510" s="3"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="4"/>
+      <c r="A511" s="3"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="4"/>
+      <c r="A512" s="3"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="4"/>
+      <c r="A513" s="3"/>
     </row>
     <row r="514" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A514" s="3"/>
+      <c r="A514" s="2"/>
     </row>
     <row r="515" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A515" s="3"/>
+      <c r="A515" s="2"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="4"/>
+      <c r="A516" s="3"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="4"/>
+      <c r="A517" s="3"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="4"/>
+      <c r="A518" s="3"/>
     </row>
     <row r="519" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A519" s="3"/>
+      <c r="A519" s="2"/>
     </row>
     <row r="520" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A520" s="3"/>
+      <c r="A520" s="2"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="4"/>
+      <c r="A521" s="3"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="4"/>
+      <c r="A522" s="3"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="4"/>
+      <c r="A523" s="3"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="4"/>
+      <c r="A524" s="3"/>
     </row>
     <row r="525" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A525" s="3"/>
+      <c r="A525" s="2"/>
     </row>
     <row r="526" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A526" s="3"/>
+      <c r="A526" s="2"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="4"/>
+      <c r="A527" s="3"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="4"/>
+      <c r="A528" s="3"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="4"/>
+      <c r="A529" s="3"/>
     </row>
     <row r="530" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A530" s="3"/>
+      <c r="A530" s="2"/>
     </row>
     <row r="531" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A531" s="3"/>
+      <c r="A531" s="2"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="4"/>
+      <c r="A532" s="3"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="4"/>
+      <c r="A533" s="3"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="4"/>
+      <c r="A534" s="3"/>
     </row>
     <row r="535" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A535" s="3"/>
+      <c r="A535" s="2"/>
     </row>
     <row r="536" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A536" s="3"/>
+      <c r="A536" s="2"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="4"/>
+      <c r="A537" s="3"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="4"/>
+      <c r="A538" s="3"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="4"/>
+      <c r="A539" s="3"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="4"/>
+      <c r="A540" s="3"/>
     </row>
     <row r="541" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A541" s="3"/>
+      <c r="A541" s="2"/>
     </row>
     <row r="542" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="3"/>
+      <c r="A542" s="2"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="4"/>
+      <c r="A543" s="3"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="4"/>
+      <c r="A544" s="3"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="4"/>
+      <c r="A545" s="3"/>
     </row>
     <row r="546" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A546" s="3"/>
+      <c r="A546" s="2"/>
     </row>
     <row r="547" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A547" s="3"/>
+      <c r="A547" s="2"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="4"/>
+      <c r="A548" s="3"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="4"/>
+      <c r="A549" s="3"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="4"/>
+      <c r="A550" s="3"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="4"/>
+      <c r="A551" s="3"/>
     </row>
     <row r="552" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A552" s="3"/>
+      <c r="A552" s="2"/>
     </row>
     <row r="553" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A553" s="3"/>
+      <c r="A553" s="2"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="4"/>
+      <c r="A554" s="3"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="4"/>
+      <c r="A555" s="3"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="4"/>
+      <c r="A556" s="3"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="4"/>
+      <c r="A557" s="3"/>
     </row>
     <row r="558" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A558" s="3"/>
+      <c r="A558" s="2"/>
     </row>
     <row r="559" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A559" s="3"/>
+      <c r="A559" s="2"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="4"/>
+      <c r="A560" s="3"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="4"/>
+      <c r="A561" s="3"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="4"/>
+      <c r="A562" s="3"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="4"/>
+      <c r="A563" s="3"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="4"/>
+      <c r="A564" s="3"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="4"/>
+      <c r="A565" s="3"/>
     </row>
     <row r="566" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A566" s="3"/>
+      <c r="A566" s="2"/>
     </row>
     <row r="567" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A567" s="3"/>
+      <c r="A567" s="2"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="4"/>
+      <c r="A568" s="3"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="4"/>
+      <c r="A569" s="3"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="4"/>
+      <c r="A570" s="3"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="4"/>
+      <c r="A571" s="3"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="4"/>
+      <c r="A572" s="3"/>
     </row>
     <row r="573" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A573" s="3"/>
+      <c r="A573" s="2"/>
     </row>
     <row r="574" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A574" s="3"/>
+      <c r="A574" s="2"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="4"/>
+      <c r="A575" s="3"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="4"/>
+      <c r="A576" s="3"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="4"/>
+      <c r="A577" s="3"/>
     </row>
     <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="3"/>
+      <c r="A578" s="2"/>
     </row>
     <row r="579" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A579" s="3"/>
+      <c r="A579" s="2"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="4"/>
+      <c r="A580" s="3"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="4"/>
+      <c r="A581" s="3"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="4"/>
+      <c r="A582" s="3"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="4"/>
+      <c r="A583" s="3"/>
     </row>
     <row r="584" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A584" s="3"/>
+      <c r="A584" s="2"/>
     </row>
     <row r="585" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A585" s="3"/>
+      <c r="A585" s="2"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="4"/>
+      <c r="A586" s="3"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="4"/>
+      <c r="A587" s="3"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="4"/>
+      <c r="A588" s="3"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="4"/>
+      <c r="A589" s="3"/>
     </row>
     <row r="590" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A590" s="3"/>
+      <c r="A590" s="2"/>
     </row>
     <row r="591" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A591" s="3"/>
+      <c r="A591" s="2"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="4"/>
+      <c r="A592" s="3"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="4"/>
+      <c r="A593" s="3"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="4"/>
+      <c r="A594" s="3"/>
     </row>
     <row r="595" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A595" s="3"/>
+      <c r="A595" s="2"/>
     </row>
     <row r="596" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A596" s="3"/>
+      <c r="A596" s="2"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="4"/>
+      <c r="A597" s="3"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="4"/>
+      <c r="A598" s="3"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="4"/>
+      <c r="A599" s="3"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="4"/>
+      <c r="A600" s="3"/>
     </row>
     <row r="601" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A601" s="3"/>
+      <c r="A601" s="2"/>
     </row>
     <row r="602" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A602" s="3"/>
+      <c r="A602" s="2"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="4"/>
+      <c r="A603" s="3"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="4"/>
+      <c r="A604" s="3"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="4"/>
+      <c r="A605" s="3"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="4"/>
+      <c r="A606" s="3"/>
     </row>
     <row r="607" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A607" s="3"/>
+      <c r="A607" s="2"/>
     </row>
     <row r="608" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="3"/>
+      <c r="A608" s="2"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="4"/>
+      <c r="A609" s="3"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="4"/>
+      <c r="A610" s="3"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="4"/>
+      <c r="A611" s="3"/>
     </row>
     <row r="612" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A612" s="3"/>
+      <c r="A612" s="2"/>
     </row>
     <row r="613" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A613" s="3"/>
+      <c r="A613" s="2"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="4"/>
+      <c r="A614" s="3"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="4"/>
+      <c r="A615" s="3"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="4"/>
+      <c r="A616" s="3"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="4"/>
+      <c r="A617" s="3"/>
     </row>
     <row r="618" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A618" s="3"/>
+      <c r="A618" s="2"/>
     </row>
     <row r="619" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A619" s="3"/>
+      <c r="A619" s="2"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="4"/>
+      <c r="A620" s="3"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="4"/>
+      <c r="A621" s="3"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="4"/>
+      <c r="A622" s="3"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="4"/>
+      <c r="A623" s="3"/>
     </row>
     <row r="624" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A624" s="3"/>
+      <c r="A624" s="2"/>
     </row>
     <row r="625" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A625" s="3"/>
+      <c r="A625" s="2"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="4"/>
+      <c r="A626" s="3"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="4"/>
+      <c r="A627" s="3"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="4"/>
+      <c r="A628" s="3"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="4"/>
+      <c r="A629" s="3"/>
     </row>
     <row r="630" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A630" s="3"/>
+      <c r="A630" s="2"/>
     </row>
     <row r="631" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A631" s="3"/>
+      <c r="A631" s="2"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="4"/>
+      <c r="A632" s="3"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="4"/>
+      <c r="A633" s="3"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="4"/>
+      <c r="A634" s="3"/>
     </row>
     <row r="635" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A635" s="3"/>
+      <c r="A635" s="2"/>
     </row>
     <row r="636" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A636" s="3"/>
+      <c r="A636" s="2"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="4"/>
+      <c r="A637" s="3"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="4"/>
+      <c r="A638" s="3"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="4"/>
+      <c r="A639" s="3"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="4"/>
+      <c r="A640" s="3"/>
     </row>
     <row r="641" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A641" s="3"/>
+      <c r="A641" s="2"/>
     </row>
     <row r="642" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A642" s="3"/>
+      <c r="A642" s="2"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="4"/>
+      <c r="A643" s="3"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="4"/>
+      <c r="A644" s="3"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="4"/>
+      <c r="A645" s="3"/>
     </row>
     <row r="646" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A646" s="3"/>
+      <c r="A646" s="2"/>
     </row>
     <row r="647" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A647" s="3"/>
+      <c r="A647" s="2"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="4"/>
+      <c r="A648" s="3"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="4"/>
+      <c r="A649" s="3"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="4"/>
+      <c r="A650" s="3"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="4"/>
+      <c r="A651" s="3"/>
     </row>
     <row r="652" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A652" s="3"/>
+      <c r="A652" s="2"/>
     </row>
     <row r="653" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A653" s="3"/>
+      <c r="A653" s="2"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="4"/>
+      <c r="A654" s="3"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="4"/>
+      <c r="A655" s="3"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="4"/>
+      <c r="A656" s="3"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="4"/>
+      <c r="A657" s="3"/>
     </row>
     <row r="658" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A658" s="3"/>
+      <c r="A658" s="2"/>
     </row>
     <row r="659" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A659" s="3"/>
+      <c r="A659" s="2"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="4"/>
+      <c r="A660" s="3"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="4"/>
+      <c r="A661" s="3"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="4"/>
+      <c r="A662" s="3"/>
     </row>
     <row r="663" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A663" s="3"/>
+      <c r="A663" s="2"/>
     </row>
     <row r="664" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A664" s="3"/>
+      <c r="A664" s="2"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="4"/>
+      <c r="A665" s="3"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="4"/>
+      <c r="A666" s="3"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="4"/>
+      <c r="A667" s="3"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="4"/>
+      <c r="A668" s="3"/>
     </row>
     <row r="669" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A669" s="3"/>
+      <c r="A669" s="2"/>
     </row>
     <row r="670" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A670" s="3"/>
+      <c r="A670" s="2"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="4"/>
+      <c r="A671" s="3"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="4"/>
+      <c r="A672" s="3"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="4"/>
+      <c r="A673" s="3"/>
     </row>
     <row r="674" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A674" s="3"/>
+      <c r="A674" s="2"/>
     </row>
     <row r="675" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A675" s="3"/>
+      <c r="A675" s="2"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="4"/>
+      <c r="A676" s="3"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="4"/>
+      <c r="A677" s="3"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="4"/>
+      <c r="A678" s="3"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="4"/>
+      <c r="A679" s="3"/>
     </row>
     <row r="680" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A680" s="3"/>
+      <c r="A680" s="2"/>
     </row>
     <row r="681" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A681" s="3"/>
+      <c r="A681" s="2"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="4"/>
+      <c r="A682" s="3"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="4"/>
+      <c r="A683" s="3"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="4"/>
+      <c r="A684" s="3"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="4"/>
+      <c r="A685" s="3"/>
     </row>
     <row r="686" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A686" s="3"/>
+      <c r="A686" s="2"/>
     </row>
     <row r="687" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A687" s="3"/>
+      <c r="A687" s="2"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="4"/>
+      <c r="A688" s="3"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="4"/>
+      <c r="A689" s="3"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="4"/>
+      <c r="A690" s="3"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="4"/>
+      <c r="A691" s="3"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="4"/>
+      <c r="A692" s="3"/>
     </row>
     <row r="693" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A693" s="3"/>
+      <c r="A693" s="2"/>
     </row>
     <row r="694" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A694" s="3"/>
+      <c r="A694" s="2"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="4"/>
+      <c r="A695" s="3"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="4"/>
+      <c r="A696" s="3"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="4"/>
+      <c r="A697" s="3"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="4"/>
+      <c r="A698" s="3"/>
     </row>
     <row r="699" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A699" s="3"/>
+      <c r="A699" s="2"/>
     </row>
     <row r="700" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A700" s="3"/>
+      <c r="A700" s="2"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="4"/>
+      <c r="A701" s="3"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="4"/>
+      <c r="A702" s="3"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="4"/>
+      <c r="A703" s="3"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="4"/>
+      <c r="A704" s="3"/>
     </row>
     <row r="705" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A705" s="3"/>
+      <c r="A705" s="2"/>
     </row>
     <row r="706" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A706" s="3"/>
+      <c r="A706" s="2"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="4"/>
+      <c r="A707" s="3"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="4"/>
+      <c r="A708" s="3"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="4"/>
+      <c r="A709" s="3"/>
     </row>
     <row r="710" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A710" s="3"/>
+      <c r="A710" s="2"/>
     </row>
     <row r="711" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A711" s="3"/>
+      <c r="A711" s="2"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="4"/>
+      <c r="A712" s="3"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="4"/>
+      <c r="A713" s="3"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="4"/>
+      <c r="A714" s="3"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="4"/>
+      <c r="A715" s="3"/>
     </row>
     <row r="716" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A716" s="3"/>
+      <c r="A716" s="2"/>
     </row>
     <row r="717" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A717" s="3"/>
+      <c r="A717" s="2"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="4"/>
+      <c r="A718" s="3"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="4"/>
+      <c r="A719" s="3"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="4"/>
+      <c r="A720" s="3"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="4"/>
+      <c r="A721" s="3"/>
     </row>
     <row r="722" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A722" s="3"/>
+      <c r="A722" s="2"/>
     </row>
     <row r="723" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A723" s="3"/>
+      <c r="A723" s="2"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="4"/>
+      <c r="A724" s="3"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="4"/>
+      <c r="A725" s="3"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="4"/>
+      <c r="A726" s="3"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="4"/>
+      <c r="A727" s="3"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="4"/>
+      <c r="A728" s="3"/>
     </row>
     <row r="729" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A729" s="3"/>
+      <c r="A729" s="2"/>
     </row>
     <row r="730" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A730" s="3"/>
+      <c r="A730" s="2"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="4"/>
+      <c r="A731" s="3"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="4"/>
+      <c r="A732" s="3"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="4"/>
+      <c r="A733" s="3"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="4"/>
+      <c r="A734" s="3"/>
     </row>
     <row r="735" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A735" s="3"/>
+      <c r="A735" s="2"/>
     </row>
     <row r="736" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A736" s="3"/>
+      <c r="A736" s="2"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="4"/>
+      <c r="A737" s="3"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="4"/>
+      <c r="A738" s="3"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="4"/>
+      <c r="A739" s="3"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="4"/>
+      <c r="A740" s="3"/>
     </row>
     <row r="741" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A741" s="3"/>
+      <c r="A741" s="2"/>
     </row>
     <row r="742" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A742" s="3"/>
+      <c r="A742" s="2"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="4"/>
+      <c r="A743" s="3"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="4"/>
+      <c r="A744" s="3"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="4"/>
+      <c r="A745" s="3"/>
     </row>
     <row r="746" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A746" s="3"/>
+      <c r="A746" s="2"/>
     </row>
     <row r="747" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A747" s="3"/>
+      <c r="A747" s="2"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="4"/>
+      <c r="A748" s="3"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="4"/>
+      <c r="A749" s="3"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="4"/>
+      <c r="A750" s="3"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="4"/>
+      <c r="A751" s="3"/>
     </row>
     <row r="752" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A752" s="3"/>
+      <c r="A752" s="2"/>
     </row>
     <row r="753" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A753" s="3"/>
+      <c r="A753" s="2"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="4"/>
+      <c r="A754" s="3"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="4"/>
+      <c r="A755" s="3"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="4"/>
+      <c r="A756" s="3"/>
     </row>
     <row r="757" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A757" s="3"/>
+      <c r="A757" s="2"/>
     </row>
     <row r="758" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A758" s="3"/>
+      <c r="A758" s="2"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="4"/>
+      <c r="A759" s="3"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="4"/>
+      <c r="A760" s="3"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="4"/>
+      <c r="A761" s="3"/>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="4"/>
+      <c r="A762" s="3"/>
     </row>
     <row r="763" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A763" s="3"/>
+      <c r="A763" s="2"/>
     </row>
     <row r="764" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A764" s="3"/>
+      <c r="A764" s="2"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="4"/>
+      <c r="A765" s="3"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="4"/>
+      <c r="A766" s="3"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="4"/>
+      <c r="A767" s="3"/>
     </row>
     <row r="768" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A768" s="3"/>
+      <c r="A768" s="2"/>
     </row>
     <row r="769" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A769" s="3"/>
+      <c r="A769" s="2"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="4"/>
+      <c r="A770" s="3"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="4"/>
+      <c r="A771" s="3"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="4"/>
+      <c r="A772" s="3"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="4"/>
+      <c r="A773" s="3"/>
     </row>
     <row r="774" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A774" s="3"/>
+      <c r="A774" s="2"/>
     </row>
     <row r="775" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A775" s="3"/>
+      <c r="A775" s="2"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="4"/>
+      <c r="A776" s="3"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="4"/>
+      <c r="A777" s="3"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="4"/>
+      <c r="A778" s="3"/>
     </row>
     <row r="779" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A779" s="3"/>
+      <c r="A779" s="2"/>
     </row>
     <row r="780" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A780" s="3"/>
+      <c r="A780" s="2"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="4"/>
+      <c r="A781" s="3"/>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="4"/>
+      <c r="A782" s="3"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="4"/>
+      <c r="A783" s="3"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="4"/>
+      <c r="A784" s="3"/>
     </row>
     <row r="785" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A785" s="3"/>
+      <c r="A785" s="2"/>
     </row>
     <row r="786" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A786" s="3"/>
+      <c r="A786" s="2"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="4"/>
+      <c r="A787" s="3"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="4"/>
+      <c r="A788" s="3"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="4"/>
+      <c r="A789" s="3"/>
     </row>
     <row r="790" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A790" s="3"/>
+      <c r="A790" s="2"/>
     </row>
     <row r="791" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A791" s="3"/>
+      <c r="A791" s="2"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="4"/>
+      <c r="A792" s="3"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="4"/>
+      <c r="A793" s="3"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="4"/>
+      <c r="A794" s="3"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="4"/>
+      <c r="A795" s="3"/>
     </row>
     <row r="796" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A796" s="3"/>
+      <c r="A796" s="2"/>
     </row>
     <row r="797" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A797" s="3"/>
+      <c r="A797" s="2"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="4"/>
+      <c r="A798" s="3"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="4"/>
+      <c r="A799" s="3"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="4"/>
+      <c r="A800" s="3"/>
     </row>
     <row r="801" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A801" s="3"/>
+      <c r="A801" s="2"/>
     </row>
     <row r="802" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A802" s="3"/>
+      <c r="A802" s="2"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="4"/>
+      <c r="A803" s="3"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="4"/>
+      <c r="A804" s="3"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="4"/>
+      <c r="A805" s="3"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="4"/>
+      <c r="A806" s="3"/>
     </row>
     <row r="807" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A807" s="3"/>
+      <c r="A807" s="2"/>
     </row>
     <row r="808" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A808" s="3"/>
+      <c r="A808" s="2"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="4"/>
+      <c r="A809" s="3"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="4"/>
+      <c r="A810" s="3"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="4"/>
+      <c r="A811" s="3"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="4"/>
+      <c r="A812" s="3"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="4"/>
+      <c r="A813" s="3"/>
     </row>
     <row r="814" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A814" s="3"/>
+      <c r="A814" s="2"/>
     </row>
     <row r="815" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A815" s="3"/>
+      <c r="A815" s="2"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="4"/>
+      <c r="A816" s="3"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="4"/>
+      <c r="A817" s="3"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="4"/>
+      <c r="A818" s="3"/>
     </row>
     <row r="819" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A819" s="3"/>
+      <c r="A819" s="2"/>
     </row>
     <row r="820" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A820" s="3"/>
+      <c r="A820" s="2"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="4"/>
+      <c r="A821" s="3"/>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="4"/>
+      <c r="A822" s="3"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="4"/>
+      <c r="A823" s="3"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="4"/>
+      <c r="A824" s="3"/>
     </row>
     <row r="825" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A825" s="3"/>
+      <c r="A825" s="2"/>
     </row>
     <row r="826" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A826" s="3"/>
+      <c r="A826" s="2"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="4"/>
+      <c r="A827" s="3"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="4"/>
+      <c r="A828" s="3"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="4"/>
+      <c r="A829" s="3"/>
     </row>
     <row r="830" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A830" s="3"/>
+      <c r="A830" s="2"/>
     </row>
     <row r="831" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A831" s="3"/>
+      <c r="A831" s="2"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="4"/>
+      <c r="A832" s="3"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="4"/>
+      <c r="A833" s="3"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="4"/>
+      <c r="A834" s="3"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="4"/>
+      <c r="A835" s="3"/>
     </row>
     <row r="836" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A836" s="3"/>
+      <c r="A836" s="2"/>
     </row>
     <row r="837" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A837" s="3"/>
+      <c r="A837" s="2"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="4"/>
+      <c r="A838" s="3"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="4"/>
+      <c r="A839" s="3"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="4"/>
+      <c r="A840" s="3"/>
     </row>
     <row r="841" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A841" s="3"/>
+      <c r="A841" s="2"/>
     </row>
     <row r="842" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A842" s="3"/>
+      <c r="A842" s="2"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="4"/>
+      <c r="A843" s="3"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="4"/>
+      <c r="A844" s="3"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="4"/>
+      <c r="A845" s="3"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="4"/>
+      <c r="A846" s="3"/>
     </row>
     <row r="847" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A847" s="3"/>
+      <c r="A847" s="2"/>
     </row>
     <row r="848" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A848" s="3"/>
+      <c r="A848" s="2"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="4"/>
+      <c r="A849" s="3"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="4"/>
+      <c r="A850" s="3"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="4"/>
+      <c r="A851" s="3"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="4"/>
+      <c r="A852" s="3"/>
     </row>
     <row r="853" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A853" s="3"/>
+      <c r="A853" s="2"/>
     </row>
     <row r="854" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A854" s="3"/>
+      <c r="A854" s="2"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="4"/>
+      <c r="A855" s="3"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="4"/>
+      <c r="A856" s="3"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="4"/>
+      <c r="A857" s="3"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="4"/>
+      <c r="A858" s="3"/>
     </row>
     <row r="859" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A859" s="3"/>
+      <c r="A859" s="2"/>
     </row>
     <row r="860" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A860" s="3"/>
+      <c r="A860" s="2"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="4"/>
+      <c r="A861" s="3"/>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="4"/>
+      <c r="A862" s="3"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="4"/>
+      <c r="A863" s="3"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="4"/>
+      <c r="A864" s="3"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="4"/>
+      <c r="A865" s="3"/>
     </row>
     <row r="866" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A866" s="3"/>
+      <c r="A866" s="2"/>
     </row>
     <row r="867" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A867" s="3"/>
+      <c r="A867" s="2"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="4"/>
+      <c r="A868" s="3"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="4"/>
+      <c r="A869" s="3"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="4"/>
+      <c r="A870" s="3"/>
     </row>
     <row r="871" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A871" s="3"/>
+      <c r="A871" s="2"/>
     </row>
     <row r="872" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A872" s="3"/>
+      <c r="A872" s="2"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="4"/>
+      <c r="A873" s="3"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="4"/>
+      <c r="A874" s="3"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="4"/>
+      <c r="A875" s="3"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="4"/>
+      <c r="A876" s="3"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="4"/>
+      <c r="A877" s="3"/>
     </row>
     <row r="878" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A878" s="3"/>
+      <c r="A878" s="2"/>
     </row>
     <row r="879" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A879" s="3"/>
+      <c r="A879" s="2"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="4"/>
+      <c r="A880" s="3"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="4"/>
+      <c r="A881" s="3"/>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="4"/>
+      <c r="A882" s="3"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="4"/>
+      <c r="A883" s="3"/>
     </row>
     <row r="884" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A884" s="3"/>
+      <c r="A884" s="2"/>
     </row>
     <row r="885" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A885" s="3"/>
+      <c r="A885" s="2"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="4"/>
+      <c r="A886" s="3"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="4"/>
+      <c r="A887" s="3"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="4"/>
+      <c r="A888" s="3"/>
     </row>
     <row r="889" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A889" s="3"/>
+      <c r="A889" s="2"/>
     </row>
     <row r="890" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A890" s="3"/>
+      <c r="A890" s="2"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="4"/>
+      <c r="A891" s="3"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="4"/>
+      <c r="A892" s="3"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="4"/>
+      <c r="A893" s="3"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="4"/>
+      <c r="A894" s="3"/>
     </row>
     <row r="895" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A895" s="3"/>
+      <c r="A895" s="2"/>
     </row>
     <row r="896" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A896" s="3"/>
+      <c r="A896" s="2"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="4"/>
+      <c r="A897" s="3"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="4"/>
+      <c r="A898" s="3"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="4"/>
+      <c r="A899" s="3"/>
     </row>
     <row r="900" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A900" s="3"/>
+      <c r="A900" s="2"/>
     </row>
     <row r="901" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A901" s="3"/>
+      <c r="A901" s="2"/>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="4"/>
+      <c r="A902" s="3"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="4"/>
+      <c r="A903" s="3"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="4"/>
+      <c r="A904" s="3"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="4"/>
+      <c r="A905" s="3"/>
     </row>
     <row r="906" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A906" s="3"/>
+      <c r="A906" s="2"/>
     </row>
     <row r="907" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A907" s="3"/>
+      <c r="A907" s="2"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="4"/>
+      <c r="A908" s="3"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="4"/>
+      <c r="A909" s="3"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="4"/>
+      <c r="A910" s="3"/>
     </row>
     <row r="911" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A911" s="3"/>
+      <c r="A911" s="2"/>
     </row>
     <row r="912" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A912" s="3"/>
+      <c r="A912" s="2"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="4"/>
+      <c r="A913" s="3"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="4"/>
+      <c r="A914" s="3"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="4"/>
+      <c r="A915" s="3"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="4"/>
+      <c r="A916" s="3"/>
     </row>
     <row r="917" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A917" s="3"/>
+      <c r="A917" s="2"/>
     </row>
     <row r="918" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A918" s="3"/>
+      <c r="A918" s="2"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="4"/>
+      <c r="A919" s="3"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="4"/>
+      <c r="A920" s="3"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="4"/>
+      <c r="A921" s="3"/>
     </row>
     <row r="922" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A922" s="3"/>
+      <c r="A922" s="2"/>
     </row>
     <row r="923" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A923" s="3"/>
+      <c r="A923" s="2"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="4"/>
+      <c r="A924" s="3"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="4"/>
+      <c r="A925" s="3"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="4"/>
+      <c r="A926" s="3"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="4"/>
+      <c r="A927" s="3"/>
     </row>
     <row r="928" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A928" s="3"/>
+      <c r="A928" s="2"/>
     </row>
     <row r="929" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A929" s="3"/>
+      <c r="A929" s="2"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="4"/>
+      <c r="A930" s="3"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="4"/>
+      <c r="A931" s="3"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="4"/>
+      <c r="A932" s="3"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="4"/>
+      <c r="A933" s="3"/>
     </row>
     <row r="934" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A934" s="3"/>
+      <c r="A934" s="2"/>
     </row>
     <row r="935" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A935" s="3"/>
+      <c r="A935" s="2"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="4"/>
+      <c r="A936" s="3"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="4"/>
+      <c r="A937" s="3"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="4"/>
+      <c r="A938" s="3"/>
     </row>
     <row r="939" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A939" s="3"/>
+      <c r="A939" s="2"/>
     </row>
     <row r="940" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A940" s="3"/>
+      <c r="A940" s="2"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="4"/>
+      <c r="A941" s="3"/>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="4"/>
+      <c r="A942" s="3"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="4"/>
+      <c r="A943" s="3"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="4"/>
+      <c r="A944" s="3"/>
     </row>
     <row r="945" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A945" s="3"/>
+      <c r="A945" s="2"/>
     </row>
     <row r="946" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A946" s="3"/>
+      <c r="A946" s="2"/>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="4"/>
+      <c r="A947" s="3"/>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="4"/>
+      <c r="A948" s="3"/>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="4"/>
+      <c r="A949" s="3"/>
     </row>
     <row r="950" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A950" s="3"/>
+      <c r="A950" s="2"/>
     </row>
     <row r="951" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A951" s="3"/>
+      <c r="A951" s="2"/>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952" s="4"/>
+      <c r="A952" s="3"/>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953" s="4"/>
+      <c r="A953" s="3"/>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954" s="4"/>
+      <c r="A954" s="3"/>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="4"/>
+      <c r="A955" s="3"/>
     </row>
     <row r="956" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A956" s="3"/>
+      <c r="A956" s="2"/>
     </row>
     <row r="957" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A957" s="3"/>
+      <c r="A957" s="2"/>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958" s="4"/>
+      <c r="A958" s="3"/>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959" s="4"/>
+      <c r="A959" s="3"/>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="4"/>
+      <c r="A960" s="3"/>
     </row>
     <row r="961" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A961" s="3"/>
+      <c r="A961" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:A109">
     <sortCondition ref="A26:A109"/>
   </sortState>
+  <conditionalFormatting sqref="B1:I35">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Search">
+      <formula>NOT(ISERROR(SEARCH("Search",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4644,25 +4609,25 @@
       <c r="A1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4670,10 +4635,10 @@
       <c r="A2" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4681,7 +4646,7 @@
       <c r="A3" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4689,19 +4654,19 @@
       <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4709,13 +4674,13 @@
       <c r="A5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4723,7 +4688,7 @@
       <c r="A6" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4731,7 +4696,7 @@
       <c r="A7" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4739,7 +4704,7 @@
       <c r="A8" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4747,10 +4712,10 @@
       <c r="A9" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4758,7 +4723,7 @@
       <c r="A10" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4766,10 +4731,10 @@
       <c r="A11" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4777,10 +4742,10 @@
       <c r="A12" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4788,10 +4753,10 @@
       <c r="A13" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4799,7 +4764,7 @@
       <c r="A14" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4807,7 +4772,7 @@
       <c r="A15" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4815,7 +4780,7 @@
       <c r="A16" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4823,7 +4788,7 @@
       <c r="A17" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4831,7 +4796,7 @@
       <c r="A18" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4839,36 +4804,36 @@
       <c r="A19" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>237</v>
       </c>
     </row>

--- a/Liste der APIs.xlsx
+++ b/Liste der APIs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BlizzAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37847436-3B7A-4A17-A926-32E78EF3F7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54AE3CD-5C27-4B26-9A75-7FDC303A50CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="285" windowWidth="29040" windowHeight="15840" xr2:uid="{45ECA79C-1FAA-4BE6-AC11-91FC7F2CF522}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:I961"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1673,7 @@
       <c r="D23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -4590,7 +4590,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
